--- a/server10/pre_info_new.xlsx
+++ b/server10/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -16,29 +16,32 @@
     <sheet name="promotion_budget" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$K$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" localSheetId="3">pp_info!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="122">
   <si>
     <t>业务代表</t>
   </si>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1256,6 +1259,3305 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45">
+      <c r="A1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>28.05</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B41" si="0">A2</f>
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>11.55</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>16.5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>28.05</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>26.4</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>29.7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>31.35</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>13.2</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>13.2</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>14.85</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>26.4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>21.45</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>34.65</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>29.7</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>19.8</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>34.65</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>14.85</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>14.85</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>34.65</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>34.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>23.1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>26.4</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>44.55</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>44.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>19.8</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>26.4</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>31.35</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>16.5</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>24.75</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>1065900</v>
+      </c>
+      <c r="G2">
+        <v>11976</v>
+      </c>
+      <c r="H2">
+        <v>39.103318362083797</v>
+      </c>
+      <c r="I2">
+        <v>39.441164399999998</v>
+      </c>
+      <c r="J2">
+        <v>28.05</v>
+      </c>
+      <c r="K2">
+        <v>28.05</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>51.707863687500002</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>146300</v>
+      </c>
+      <c r="G3">
+        <v>2251</v>
+      </c>
+      <c r="H3">
+        <v>34.279478462236902</v>
+      </c>
+      <c r="I3">
+        <v>33.128536724999996</v>
+      </c>
+      <c r="J3">
+        <v>11.55</v>
+      </c>
+      <c r="K3">
+        <v>11.55</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>58.393507499999998</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>198550</v>
+      </c>
+      <c r="G4">
+        <v>2090</v>
+      </c>
+      <c r="H4">
+        <v>73.851687532580797</v>
+      </c>
+      <c r="I4">
+        <v>35.838706500000001</v>
+      </c>
+      <c r="J4">
+        <v>16.5</v>
+      </c>
+      <c r="K4">
+        <v>16.5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>319770</v>
+      </c>
+      <c r="G6">
+        <v>3593</v>
+      </c>
+      <c r="H6">
+        <v>46.298000000000002</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>28.05</v>
+      </c>
+      <c r="K6">
+        <v>28.05</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>43.073745000000002</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>154660</v>
+      </c>
+      <c r="G7">
+        <v>2379</v>
+      </c>
+      <c r="H7">
+        <v>68.010379189490607</v>
+      </c>
+      <c r="I7">
+        <v>52.302526499999999</v>
+      </c>
+      <c r="J7">
+        <v>26.4</v>
+      </c>
+      <c r="K7">
+        <v>26.4</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>51414</v>
+      </c>
+      <c r="G8">
+        <v>541</v>
+      </c>
+      <c r="H8">
+        <v>42.953084354922403</v>
+      </c>
+      <c r="I8">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>29.7</v>
+      </c>
+      <c r="K8">
+        <v>29.7</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>714780</v>
+      </c>
+      <c r="G10">
+        <v>8031</v>
+      </c>
+      <c r="H10">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>56.031686100000002</v>
+      </c>
+      <c r="J10">
+        <v>31.35</v>
+      </c>
+      <c r="K10">
+        <v>31.35</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>56.033810437500001</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>100320</v>
+      </c>
+      <c r="G11">
+        <v>1543</v>
+      </c>
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>13.2</v>
+      </c>
+      <c r="K11">
+        <v>13.2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>33.75</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>25080</v>
+      </c>
+      <c r="G12">
+        <v>264</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>13.2</v>
+      </c>
+      <c r="K12">
+        <v>13.2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>51.015689999999999</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>679250</v>
+      </c>
+      <c r="G14">
+        <v>7632</v>
+      </c>
+      <c r="H14">
+        <v>51.736963932253602</v>
+      </c>
+      <c r="I14">
+        <v>46.570642499999998</v>
+      </c>
+      <c r="J14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="K14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>43.526484843749998</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>135432</v>
+      </c>
+      <c r="G15">
+        <v>2084</v>
+      </c>
+      <c r="H15">
+        <v>34.079688255239603</v>
+      </c>
+      <c r="I15">
+        <v>32.004817125000002</v>
+      </c>
+      <c r="J15">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="K15">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>56430</v>
+      </c>
+      <c r="G16">
+        <v>594</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>14.85</v>
+      </c>
+      <c r="K16">
+        <v>14.85</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>58.207680843749998</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>180576</v>
+      </c>
+      <c r="G18">
+        <v>2029</v>
+      </c>
+      <c r="H18">
+        <v>31.951753453723299</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>26.4</v>
+      </c>
+      <c r="K18">
+        <v>26.4</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>50.242815</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>77748</v>
+      </c>
+      <c r="G19">
+        <v>1196</v>
+      </c>
+      <c r="H19">
+        <v>36.030627959197403</v>
+      </c>
+      <c r="I19">
+        <v>39.799266000000003</v>
+      </c>
+      <c r="J19">
+        <v>21.45</v>
+      </c>
+      <c r="K19">
+        <v>21.45</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>22572</v>
+      </c>
+      <c r="G20">
+        <v>238</v>
+      </c>
+      <c r="H20">
+        <v>49.462887821740402</v>
+      </c>
+      <c r="I20">
+        <v>36</v>
+      </c>
+      <c r="J20">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="K20">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>47.389818937500003</v>
+      </c>
+      <c r="D22">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>470250</v>
+      </c>
+      <c r="G22">
+        <v>5284</v>
+      </c>
+      <c r="H22">
+        <v>74.135409794294503</v>
+      </c>
+      <c r="I22">
+        <v>36.470678325000002</v>
+      </c>
+      <c r="J22">
+        <v>34.65</v>
+      </c>
+      <c r="K22">
+        <v>34.65</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>42.170185687500002</v>
+      </c>
+      <c r="D23">
+        <v>72</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>123393.60000000001</v>
+      </c>
+      <c r="G23">
+        <v>1898</v>
+      </c>
+      <c r="H23">
+        <v>63.914681686086901</v>
+      </c>
+      <c r="I23">
+        <v>44.348284274999997</v>
+      </c>
+      <c r="J23">
+        <v>29.7</v>
+      </c>
+      <c r="K23">
+        <v>29.7</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>30305</v>
+      </c>
+      <c r="G24">
+        <v>319</v>
+      </c>
+      <c r="H24">
+        <v>48.8985466891939</v>
+      </c>
+      <c r="I24">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>19.8</v>
+      </c>
+      <c r="K24">
+        <v>19.8</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>52.522647749999997</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>391875</v>
+      </c>
+      <c r="G26">
+        <v>4403</v>
+      </c>
+      <c r="H26">
+        <v>35.827110643611697</v>
+      </c>
+      <c r="I26">
+        <v>53.063854650000003</v>
+      </c>
+      <c r="J26">
+        <v>34.65</v>
+      </c>
+      <c r="K26">
+        <v>34.65</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>52.715356874999998</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>94050</v>
+      </c>
+      <c r="G27">
+        <v>1447</v>
+      </c>
+      <c r="H27">
+        <v>30.198295180119</v>
+      </c>
+      <c r="I27">
+        <v>22.519712250000001</v>
+      </c>
+      <c r="J27">
+        <v>14.85</v>
+      </c>
+      <c r="K27">
+        <v>14.85</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>16929</v>
+      </c>
+      <c r="G28">
+        <v>178</v>
+      </c>
+      <c r="H28">
+        <v>41.265919611481998</v>
+      </c>
+      <c r="I28">
+        <v>39</v>
+      </c>
+      <c r="J28">
+        <v>14.85</v>
+      </c>
+      <c r="K28">
+        <v>14.85</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>141075</v>
+      </c>
+      <c r="G30">
+        <v>1585</v>
+      </c>
+      <c r="H30">
+        <v>41</v>
+      </c>
+      <c r="I30">
+        <v>47</v>
+      </c>
+      <c r="J30">
+        <v>34.65</v>
+      </c>
+      <c r="K30">
+        <v>34.65</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>58.827489046875002</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>47</v>
+      </c>
+      <c r="F31">
+        <v>49658.400000000001</v>
+      </c>
+      <c r="G31">
+        <v>764</v>
+      </c>
+      <c r="H31">
+        <v>44.605861068498697</v>
+      </c>
+      <c r="I31">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>23.1</v>
+      </c>
+      <c r="K31">
+        <v>23.1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>6186.4</v>
+      </c>
+      <c r="G32">
+        <v>65</v>
+      </c>
+      <c r="H32">
+        <v>48.693079203459803</v>
+      </c>
+      <c r="I32">
+        <v>35</v>
+      </c>
+      <c r="J32">
+        <v>26.4</v>
+      </c>
+      <c r="K32">
+        <v>26.4</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>41.1884595</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>116622</v>
+      </c>
+      <c r="G34">
+        <v>1310</v>
+      </c>
+      <c r="H34">
+        <v>34.649047404029801</v>
+      </c>
+      <c r="I34">
+        <v>41.419339200000003</v>
+      </c>
+      <c r="J34">
+        <v>44.55</v>
+      </c>
+      <c r="K34">
+        <v>44.55</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>54.581176687499998</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="F35">
+        <v>52366.6</v>
+      </c>
+      <c r="G35">
+        <v>806</v>
+      </c>
+      <c r="H35">
+        <v>45.026164711021899</v>
+      </c>
+      <c r="I35">
+        <v>41.601480449999997</v>
+      </c>
+      <c r="J35">
+        <v>19.8</v>
+      </c>
+      <c r="K35">
+        <v>19.8</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+      <c r="F36">
+        <v>15466</v>
+      </c>
+      <c r="G36">
+        <v>163</v>
+      </c>
+      <c r="H36">
+        <v>53.039824126338097</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>26.4</v>
+      </c>
+      <c r="K36">
+        <v>26.4</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>47.851195500000003</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>33</v>
+      </c>
+      <c r="F38">
+        <v>1429560</v>
+      </c>
+      <c r="G38">
+        <v>16062</v>
+      </c>
+      <c r="H38">
+        <v>46.285965830817197</v>
+      </c>
+      <c r="I38">
+        <v>32.556673199999999</v>
+      </c>
+      <c r="J38">
+        <v>31.35</v>
+      </c>
+      <c r="K38">
+        <v>31.35</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>40.703016374999997</v>
+      </c>
+      <c r="D39">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>135850</v>
+      </c>
+      <c r="G39">
+        <v>2090</v>
+      </c>
+      <c r="H39">
+        <v>31.4039024539948</v>
+      </c>
+      <c r="I39">
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>16.5</v>
+      </c>
+      <c r="K39">
+        <v>16.5</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>146300</v>
+      </c>
+      <c r="G40">
+        <v>1540</v>
+      </c>
+      <c r="H40">
+        <v>50.8331028360967</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>24.75</v>
+      </c>
+      <c r="K40">
+        <v>24.75</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15">
+      <c r="A1" s="22">
+        <v>51.7</v>
+      </c>
+      <c r="B1" s="22">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="C1" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="D1" s="22">
+        <v>43.013650198292183</v>
+      </c>
+      <c r="E1" s="22">
+        <v>43.38528084</v>
+      </c>
+      <c r="F1">
+        <v>28.05</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G40" si="0">F1</f>
+        <v>28.05</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1065900</v>
+      </c>
+      <c r="J1">
+        <v>11976</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15">
+      <c r="A2" s="22">
+        <v>56.878650056250009</v>
+      </c>
+      <c r="B2" s="22">
+        <v>20.900000000000002</v>
+      </c>
+      <c r="C2" s="22">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="D2" s="22">
+        <v>37.707426308460597</v>
+      </c>
+      <c r="E2" s="22">
+        <v>36.441390397500001</v>
+      </c>
+      <c r="F2">
+        <v>11.55</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>11.55</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>146300</v>
+      </c>
+      <c r="J2">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="22">
+        <v>64.232858250000007</v>
+      </c>
+      <c r="B3" s="22">
+        <v>61.600000000000009</v>
+      </c>
+      <c r="C3" s="22">
+        <v>52.800000000000004</v>
+      </c>
+      <c r="D3" s="22">
+        <v>81.236856285838883</v>
+      </c>
+      <c r="E3" s="22">
+        <v>39.422577150000002</v>
+      </c>
+      <c r="F3">
+        <v>16.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>198550</v>
+      </c>
+      <c r="J3">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="22">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="22">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="B5" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="C5" s="22">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D5" s="22">
+        <v>50.927800000000005</v>
+      </c>
+      <c r="E5" s="22">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F5">
+        <v>28.05</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>28.05</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>319770</v>
+      </c>
+      <c r="J5">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="22">
+        <v>47.381119500000004</v>
+      </c>
+      <c r="B6" s="22">
+        <v>62.7</v>
+      </c>
+      <c r="C6" s="22">
+        <v>50.6</v>
+      </c>
+      <c r="D6" s="22">
+        <v>74.81141710843967</v>
+      </c>
+      <c r="E6" s="22">
+        <v>57.532779150000003</v>
+      </c>
+      <c r="F6">
+        <v>26.4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>154660</v>
+      </c>
+      <c r="J6">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="B7" s="22">
+        <v>60.500000000000007</v>
+      </c>
+      <c r="C7" s="22">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="D7" s="22">
+        <v>47.248392790414648</v>
+      </c>
+      <c r="E7" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="F7">
+        <v>29.7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>51414</v>
+      </c>
+      <c r="J7">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="22">
+        <v>0</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="22">
+        <v>58.300000000000004</v>
+      </c>
+      <c r="B9" s="22">
+        <v>56.1</v>
+      </c>
+      <c r="C9" s="22">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="D9" s="22">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="E9" s="22">
+        <v>61.634854710000006</v>
+      </c>
+      <c r="F9">
+        <v>31.35</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>31.35</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>714780</v>
+      </c>
+      <c r="J9">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="22">
+        <v>61.637191481250007</v>
+      </c>
+      <c r="B10" s="25">
+        <v>31.900000000000002</v>
+      </c>
+      <c r="C10" s="22">
+        <v>33</v>
+      </c>
+      <c r="D10" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="E10" s="22">
+        <v>37.400000000000006</v>
+      </c>
+      <c r="F10">
+        <v>13.2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100320</v>
+      </c>
+      <c r="J10">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15">
+      <c r="A11" s="22">
+        <v>37.125</v>
+      </c>
+      <c r="B11" s="22">
+        <v>46.2</v>
+      </c>
+      <c r="C11" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>28.6</v>
+      </c>
+      <c r="E11" s="22">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="F11">
+        <v>13.2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>25080</v>
+      </c>
+      <c r="J11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" s="22">
+        <v>0</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="22">
+        <v>56.117259000000004</v>
+      </c>
+      <c r="B13" s="22">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="C13" s="22">
+        <v>39.6</v>
+      </c>
+      <c r="D13" s="22">
+        <v>56.910660325478965</v>
+      </c>
+      <c r="E13" s="22">
+        <v>51.227706750000003</v>
+      </c>
+      <c r="F13">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>679250</v>
+      </c>
+      <c r="J13">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="22">
+        <v>47.879133328125</v>
+      </c>
+      <c r="B14" s="22">
+        <v>69.300000000000011</v>
+      </c>
+      <c r="C14" s="22">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="D14" s="22">
+        <v>37.487657080763569</v>
+      </c>
+      <c r="E14" s="22">
+        <v>35.205298837500003</v>
+      </c>
+      <c r="F14">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>135432</v>
+      </c>
+      <c r="J14">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="B15" s="22">
+        <v>52.800000000000004</v>
+      </c>
+      <c r="C15" s="22">
+        <v>47.300000000000004</v>
+      </c>
+      <c r="D15" s="22">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="E15" s="22">
+        <v>30.800000000000004</v>
+      </c>
+      <c r="F15">
+        <v>14.85</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>56430</v>
+      </c>
+      <c r="J15">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="22">
+        <v>0</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="22">
+        <v>64.028448928125002</v>
+      </c>
+      <c r="B17" s="22">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="C17" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="D17" s="22">
+        <v>35.146928799095633</v>
+      </c>
+      <c r="E17" s="22">
+        <v>37.400000000000006</v>
+      </c>
+      <c r="F17">
+        <v>26.4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>180576</v>
+      </c>
+      <c r="J17">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="22">
+        <v>55.267096500000008</v>
+      </c>
+      <c r="B18" s="22">
+        <v>56.1</v>
+      </c>
+      <c r="C18" s="22">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="D18" s="22">
+        <v>39.633690755117144</v>
+      </c>
+      <c r="E18" s="22">
+        <v>43.779192600000009</v>
+      </c>
+      <c r="F18">
+        <v>21.45</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>21.45</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>77748</v>
+      </c>
+      <c r="J18">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="22">
+        <v>34.1</v>
+      </c>
+      <c r="B19" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="C19" s="22">
+        <v>44</v>
+      </c>
+      <c r="D19" s="22">
+        <v>54.409176603914446</v>
+      </c>
+      <c r="E19" s="22">
+        <v>39.6</v>
+      </c>
+      <c r="F19">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>18.149999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>22572</v>
+      </c>
+      <c r="J19">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="22">
+        <v>0</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="22">
+        <v>52.128800831250004</v>
+      </c>
+      <c r="B21" s="22">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="C21" s="22">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D21" s="22">
+        <v>81.548950773723959</v>
+      </c>
+      <c r="E21" s="22">
+        <v>40.117746157500008</v>
+      </c>
+      <c r="F21">
+        <v>34.65</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>34.65</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>470250</v>
+      </c>
+      <c r="J21">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="22">
+        <v>46.387204256250008</v>
+      </c>
+      <c r="B22" s="22">
+        <v>79.2</v>
+      </c>
+      <c r="C22" s="22">
+        <v>46.2</v>
+      </c>
+      <c r="D22" s="22">
+        <v>70.30614985469559</v>
+      </c>
+      <c r="E22" s="22">
+        <v>48.783112702499999</v>
+      </c>
+      <c r="F22">
+        <v>29.7</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>123393.60000000001</v>
+      </c>
+      <c r="J22">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="B23" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="C23" s="22">
+        <v>46.2</v>
+      </c>
+      <c r="D23" s="22">
+        <v>53.788401358113298</v>
+      </c>
+      <c r="E23" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="F23">
+        <v>19.8</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>30305</v>
+      </c>
+      <c r="J23">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="22">
+        <v>0</v>
+      </c>
+      <c r="B24" s="22">
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="22">
+        <v>57.774912525000005</v>
+      </c>
+      <c r="B25" s="22">
+        <v>41.800000000000004</v>
+      </c>
+      <c r="C25" s="22">
+        <v>46.2</v>
+      </c>
+      <c r="D25" s="22">
+        <v>39.409821707972867</v>
+      </c>
+      <c r="E25" s="22">
+        <v>58.370240115000009</v>
+      </c>
+      <c r="F25">
+        <v>34.65</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>34.65</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>391875</v>
+      </c>
+      <c r="J25">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="22">
+        <v>57.986892562500003</v>
+      </c>
+      <c r="B26" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="C26" s="22">
+        <v>44</v>
+      </c>
+      <c r="D26" s="22">
+        <v>33.2181246981309</v>
+      </c>
+      <c r="E26" s="22">
+        <v>24.771683475000003</v>
+      </c>
+      <c r="F26">
+        <v>14.85</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>94050</v>
+      </c>
+      <c r="J26">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="22">
+        <v>34.1</v>
+      </c>
+      <c r="B27" s="22">
+        <v>52.800000000000004</v>
+      </c>
+      <c r="C27" s="22">
+        <v>39.6</v>
+      </c>
+      <c r="D27" s="22">
+        <v>45.392511572630198</v>
+      </c>
+      <c r="E27" s="22">
+        <v>42.900000000000006</v>
+      </c>
+      <c r="F27">
+        <v>14.85</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>14.85</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>16929</v>
+      </c>
+      <c r="J27">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="22">
+        <v>0</v>
+      </c>
+      <c r="B28" s="22">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="22">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="B29" s="22">
+        <v>72.600000000000009</v>
+      </c>
+      <c r="C29" s="22">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D29" s="22">
+        <v>45.1</v>
+      </c>
+      <c r="E29" s="22">
+        <v>51.7</v>
+      </c>
+      <c r="F29">
+        <v>34.65</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>34.65</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>141075</v>
+      </c>
+      <c r="J29">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="22">
+        <v>64.710237951562505</v>
+      </c>
+      <c r="B30" s="22">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="C30" s="22">
+        <v>51.7</v>
+      </c>
+      <c r="D30" s="22">
+        <v>49.066447175348571</v>
+      </c>
+      <c r="E30" s="22">
+        <v>39.6</v>
+      </c>
+      <c r="F30">
+        <v>23.1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>23.1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>49658.400000000001</v>
+      </c>
+      <c r="J30">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="B31" s="22">
+        <v>61.600000000000009</v>
+      </c>
+      <c r="C31" s="22">
+        <v>45.1</v>
+      </c>
+      <c r="D31" s="22">
+        <v>53.562387123805784</v>
+      </c>
+      <c r="E31" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="F31">
+        <v>26.4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>6186.4</v>
+      </c>
+      <c r="J31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="22">
+        <v>0</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="22">
+        <v>45.307305450000001</v>
+      </c>
+      <c r="B33" s="22">
+        <v>66</v>
+      </c>
+      <c r="C33" s="22">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="D33" s="22">
+        <v>38.113952144432787</v>
+      </c>
+      <c r="E33" s="22">
+        <v>45.56127312000001</v>
+      </c>
+      <c r="F33">
+        <v>44.55</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>44.55</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>116622</v>
+      </c>
+      <c r="J33">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="22">
+        <v>60.039294356250004</v>
+      </c>
+      <c r="B34" s="22">
+        <v>66</v>
+      </c>
+      <c r="C34" s="22">
+        <v>50.6</v>
+      </c>
+      <c r="D34" s="22">
+        <v>49.528781182124092</v>
+      </c>
+      <c r="E34" s="22">
+        <v>45.761628495000004</v>
+      </c>
+      <c r="F34">
+        <v>19.8</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>52366.6</v>
+      </c>
+      <c r="J34">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="B35" s="22">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="C35" s="22">
+        <v>39.6</v>
+      </c>
+      <c r="D35" s="22">
+        <v>58.343806538971911</v>
+      </c>
+      <c r="E35" s="22">
+        <v>38.5</v>
+      </c>
+      <c r="F35">
+        <v>26.4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>26.4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>15466</v>
+      </c>
+      <c r="J35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="22">
+        <v>0</v>
+      </c>
+      <c r="B36" s="22">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="22">
+        <v>52.636315050000007</v>
+      </c>
+      <c r="B37" s="22">
+        <v>44</v>
+      </c>
+      <c r="C37" s="22">
+        <v>36.300000000000004</v>
+      </c>
+      <c r="D37" s="22">
+        <v>50.914562413898921</v>
+      </c>
+      <c r="E37" s="22">
+        <v>35.812340519999999</v>
+      </c>
+      <c r="F37">
+        <v>31.35</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>31.35</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1429560</v>
+      </c>
+      <c r="J37">
+        <v>16062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="22">
+        <v>44.773318012499999</v>
+      </c>
+      <c r="B38" s="22">
+        <v>47.300000000000004</v>
+      </c>
+      <c r="C38" s="22">
+        <v>44</v>
+      </c>
+      <c r="D38" s="22">
+        <v>34.544292699394283</v>
+      </c>
+      <c r="E38" s="22">
+        <v>31.900000000000002</v>
+      </c>
+      <c r="F38">
+        <v>16.5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>135850</v>
+      </c>
+      <c r="J38">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="22">
+        <v>31.900000000000002</v>
+      </c>
+      <c r="B39" s="22">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="C39" s="22">
+        <v>49.500000000000007</v>
+      </c>
+      <c r="D39" s="22">
+        <v>55.916413119706377</v>
+      </c>
+      <c r="E39" s="22">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>24.75</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>24.75</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>146300</v>
+      </c>
+      <c r="J39">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="22">
+        <v>0</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="22">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
@@ -1418,7 +4720,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1492,8 +4794,8 @@
         <v>1</v>
       </c>
       <c r="G2" s="18">
-        <f t="shared" ref="G2:G41" si="0">ROUND(H2*0.85,0)</f>
-        <v>8500000</v>
+        <f>ROUND(H2*0.9,0)</f>
+        <v>9000000</v>
       </c>
       <c r="H2" s="19">
         <v>10000000</v>
@@ -1531,8 +4833,8 @@
         <v>2</v>
       </c>
       <c r="G3" s="18">
-        <f t="shared" si="0"/>
-        <v>1700000</v>
+        <f>ROUND(H3*0.9,0)</f>
+        <v>1800000</v>
       </c>
       <c r="H3" s="19">
         <v>2000000</v>
@@ -1570,8 +4872,8 @@
         <v>3</v>
       </c>
       <c r="G4" s="18">
-        <f t="shared" si="0"/>
-        <v>1615000</v>
+        <f t="shared" ref="G4:G41" si="0">ROUND(H4*0.9,0)</f>
+        <v>1710000</v>
       </c>
       <c r="H4" s="19">
         <v>1900000</v>
@@ -1610,7 +4912,7 @@
       </c>
       <c r="G5" s="18">
         <f t="shared" si="0"/>
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="H5" s="19">
         <v>200000</v>
@@ -1649,7 +4951,7 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="0"/>
-        <v>2550000</v>
+        <v>2700000</v>
       </c>
       <c r="H6" s="19">
         <v>3000000</v>
@@ -1688,7 +4990,7 @@
       </c>
       <c r="G7" s="18">
         <f t="shared" si="0"/>
-        <v>850000</v>
+        <v>900000</v>
       </c>
       <c r="H7" s="19">
         <v>1000000</v>
@@ -1727,7 +5029,7 @@
       </c>
       <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>255000</v>
+        <v>270000</v>
       </c>
       <c r="H8" s="19">
         <v>300000</v>
@@ -1766,7 +5068,7 @@
       </c>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="H9" s="19">
         <v>100000</v>
@@ -1805,7 +5107,7 @@
       </c>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>5100000</v>
+        <v>5400000</v>
       </c>
       <c r="H10" s="19">
         <v>6000000</v>
@@ -1844,7 +5146,7 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>1020000</v>
+        <v>1080000</v>
       </c>
       <c r="H11" s="19">
         <v>1200000</v>
@@ -1883,7 +5185,7 @@
       </c>
       <c r="G12" s="18">
         <f t="shared" si="0"/>
-        <v>255000</v>
+        <v>270000</v>
       </c>
       <c r="H12" s="19">
         <v>300000</v>
@@ -1922,7 +5224,7 @@
       </c>
       <c r="G13" s="18">
         <f t="shared" si="0"/>
-        <v>850000</v>
+        <v>900000</v>
       </c>
       <c r="H13" s="19">
         <v>1000000</v>
@@ -1961,7 +5263,7 @@
       </c>
       <c r="G14" s="18">
         <f t="shared" si="0"/>
-        <v>4250000</v>
+        <v>4500000</v>
       </c>
       <c r="H14" s="19">
         <v>5000000</v>
@@ -2000,7 +5302,7 @@
       </c>
       <c r="G15" s="18">
         <f t="shared" si="0"/>
-        <v>1020000</v>
+        <v>1080000</v>
       </c>
       <c r="H15" s="19">
         <v>1200000</v>
@@ -2039,7 +5341,7 @@
       </c>
       <c r="G16" s="18">
         <f t="shared" si="0"/>
-        <v>510000</v>
+        <v>540000</v>
       </c>
       <c r="H16" s="19">
         <v>600000</v>
@@ -2078,7 +5380,7 @@
       </c>
       <c r="G17" s="18">
         <f t="shared" si="0"/>
-        <v>102000</v>
+        <v>108000</v>
       </c>
       <c r="H17" s="19">
         <v>120000</v>
@@ -2117,7 +5419,7 @@
       </c>
       <c r="G18" s="18">
         <f t="shared" si="0"/>
-        <v>1530000</v>
+        <v>1620000</v>
       </c>
       <c r="H18" s="19">
         <v>1800000</v>
@@ -2156,7 +5458,7 @@
       </c>
       <c r="G19" s="18">
         <f t="shared" si="0"/>
-        <v>510000</v>
+        <v>540000</v>
       </c>
       <c r="H19" s="19">
         <v>600000</v>
@@ -2195,7 +5497,7 @@
       </c>
       <c r="G20" s="18">
         <f t="shared" si="0"/>
-        <v>170000</v>
+        <v>180000</v>
       </c>
       <c r="H20" s="19">
         <v>200000</v>
@@ -2234,7 +5536,7 @@
       </c>
       <c r="G21" s="18">
         <f t="shared" si="0"/>
-        <v>51000</v>
+        <v>54000</v>
       </c>
       <c r="H21" s="19">
         <v>60000</v>
@@ -2273,7 +5575,7 @@
       </c>
       <c r="G22" s="18">
         <f t="shared" si="0"/>
-        <v>3060000</v>
+        <v>3240000</v>
       </c>
       <c r="H22" s="19">
         <v>3600000</v>
@@ -2312,7 +5614,7 @@
       </c>
       <c r="G23" s="18">
         <f t="shared" si="0"/>
-        <v>612000</v>
+        <v>648000</v>
       </c>
       <c r="H23" s="19">
         <v>720000</v>
@@ -2351,7 +5653,7 @@
       </c>
       <c r="G24" s="18">
         <f t="shared" si="0"/>
-        <v>212500</v>
+        <v>225000</v>
       </c>
       <c r="H24" s="19">
         <v>250000</v>
@@ -2418,7 +5720,7 @@
       </c>
       <c r="G26" s="18">
         <f t="shared" si="0"/>
-        <v>2550000</v>
+        <v>2700000</v>
       </c>
       <c r="H26" s="19">
         <v>3000000</v>
@@ -2457,7 +5759,7 @@
       </c>
       <c r="G27" s="18">
         <f t="shared" si="0"/>
-        <v>850000</v>
+        <v>900000</v>
       </c>
       <c r="H27" s="19">
         <v>1000000</v>
@@ -2496,7 +5798,7 @@
       </c>
       <c r="G28" s="18">
         <f t="shared" si="0"/>
-        <v>153000</v>
+        <v>162000</v>
       </c>
       <c r="H28" s="19">
         <v>180000</v>
@@ -2569,17 +5871,17 @@
       </c>
       <c r="G30" s="18">
         <f t="shared" si="0"/>
-        <v>918000</v>
+        <v>972000</v>
       </c>
       <c r="H30" s="19">
         <v>1080000</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" ref="I30:K31" si="3">H30*1.1</f>
+        <f>H30*1.1</f>
         <v>1188000</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J30:K31" si="3">I30*1.1</f>
         <v>1306800</v>
       </c>
       <c r="K30" s="19">
@@ -2608,13 +5910,13 @@
       </c>
       <c r="G31" s="18">
         <f t="shared" si="0"/>
-        <v>306000</v>
+        <v>324000</v>
       </c>
       <c r="H31" s="19">
         <v>360000</v>
       </c>
       <c r="I31" s="19">
-        <f t="shared" si="3"/>
+        <f>H31*1.1</f>
         <v>396000.00000000006</v>
       </c>
       <c r="J31" s="19">
@@ -2647,7 +5949,7 @@
       </c>
       <c r="G32" s="18">
         <f t="shared" si="0"/>
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="H32" s="19">
         <v>40000</v>
@@ -2717,7 +6019,7 @@
       </c>
       <c r="G34" s="18">
         <f t="shared" si="0"/>
-        <v>612000</v>
+        <v>648000</v>
       </c>
       <c r="H34" s="19">
         <v>720000</v>
@@ -2756,17 +6058,17 @@
       </c>
       <c r="G35" s="18">
         <f t="shared" si="0"/>
-        <v>367200</v>
+        <v>388800</v>
       </c>
       <c r="H35" s="19">
         <v>432000</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" ref="I35:K36" si="4">H35</f>
+        <f>H35</f>
         <v>432000</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J35:K36" si="4">I35</f>
         <v>432000</v>
       </c>
       <c r="K35" s="19">
@@ -2795,13 +6097,13 @@
       </c>
       <c r="G36" s="18">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>90000</v>
       </c>
       <c r="H36" s="19">
         <v>100000</v>
       </c>
       <c r="I36" s="19">
-        <f t="shared" si="4"/>
+        <f>H36</f>
         <v>100000</v>
       </c>
       <c r="J36" s="19">
@@ -2834,7 +6136,7 @@
       </c>
       <c r="G37" s="18">
         <f t="shared" si="0"/>
-        <v>246500</v>
+        <v>261000</v>
       </c>
       <c r="H37" s="19">
         <v>290000</v>
@@ -2873,17 +6175,17 @@
       </c>
       <c r="G38" s="18">
         <f t="shared" si="0"/>
-        <v>10200000</v>
+        <v>10800000</v>
       </c>
       <c r="H38" s="19">
         <v>12000000</v>
       </c>
       <c r="I38" s="19">
-        <f t="shared" ref="I38:K39" si="5">H38*0.9</f>
+        <f>H38*0.9</f>
         <v>10800000</v>
       </c>
       <c r="J38" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J38:K39" si="5">I38*0.9</f>
         <v>9720000</v>
       </c>
       <c r="K38" s="19">
@@ -2912,13 +6214,13 @@
       </c>
       <c r="G39" s="18">
         <f t="shared" si="0"/>
-        <v>1105000</v>
+        <v>1170000</v>
       </c>
       <c r="H39" s="19">
         <v>1300000</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="5"/>
+        <f>H39*0.9</f>
         <v>1170000</v>
       </c>
       <c r="J39" s="19">
@@ -2951,7 +6253,7 @@
       </c>
       <c r="G40" s="18">
         <f t="shared" si="0"/>
-        <v>850000</v>
+        <v>900000</v>
       </c>
       <c r="H40" s="19">
         <v>1000000</v>
@@ -2990,7 +6292,7 @@
       </c>
       <c r="G41" s="18">
         <f t="shared" si="0"/>
-        <v>255000</v>
+        <v>270000</v>
       </c>
       <c r="H41" s="19">
         <v>300000</v>
@@ -3017,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ41"/>
+  <dimension ref="A1:AMG44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3030,650 +6332,619 @@
     <col min="3" max="3" width="19.25" style="22"/>
     <col min="4" max="4" width="19.125" style="22"/>
     <col min="5" max="5" width="15.875" style="22"/>
-    <col min="6" max="6" width="16.625"/>
-    <col min="7" max="7" width="13.375" style="22"/>
-    <col min="8" max="8" width="21.5" style="22"/>
-    <col min="9" max="9" width="19" style="22"/>
-    <col min="10" max="10" width="19"/>
-    <col min="11" max="11" width="22.375"/>
-    <col min="12" max="12" width="13.125"/>
-    <col min="13" max="13" width="28.5"/>
-    <col min="14" max="1025" width="7.375"/>
+    <col min="6" max="6" width="21.5" style="22"/>
+    <col min="7" max="7" width="19" style="22"/>
+    <col min="9" max="9" width="22.375"/>
+    <col min="10" max="10" width="13.125"/>
+    <col min="11" max="1022" width="7.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="1" customFormat="1" ht="35.25" customHeight="1">
+    <row r="1" spans="1:1021" s="1" customFormat="1" ht="35.25" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
+      <c r="AMD1"/>
+      <c r="AME1"/>
+      <c r="AMF1"/>
       <c r="AMG1"/>
-      <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024">
+    </row>
+    <row r="2" spans="1:1021">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2">
         <v>47</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2">
         <v>33</v>
       </c>
       <c r="F2">
         <v>1065900</v>
       </c>
-      <c r="G2" s="22">
-        <f>ROUND(F2/89,0)</f>
+      <c r="G2">
         <v>11976</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2">
         <v>39.103318362083797</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2">
         <v>39.441164399999998</v>
       </c>
       <c r="J2">
         <v>28.05</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K41" si="0">J2</f>
         <v>28.05</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1021">
       <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3">
         <v>51.707863687500002</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3">
         <v>39</v>
       </c>
       <c r="F3">
         <v>146300</v>
       </c>
-      <c r="G3" s="22">
-        <f>ROUND(F3/65,0)</f>
+      <c r="G3">
         <v>2251</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3">
         <v>34.279478462236902</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3">
         <v>33.128536724999996</v>
       </c>
       <c r="J3">
         <v>11.55</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
         <v>11.55</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1021">
       <c r="A4" s="21">
         <v>1</v>
       </c>
       <c r="B4" s="21">
         <v>3</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4">
         <v>58.393507499999998</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4">
         <v>56</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4">
         <v>48</v>
       </c>
       <c r="F4">
         <v>198550</v>
       </c>
-      <c r="G4" s="22">
-        <f>ROUND(F4/95,0)</f>
+      <c r="G4">
         <v>2090</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4">
         <v>73.851687532580797</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4">
         <v>35.838706500000001</v>
       </c>
       <c r="J4">
         <v>16.5</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1024">
+    <row r="5" spans="1:1021">
       <c r="A5" s="21">
         <v>1</v>
       </c>
       <c r="B5" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="22">
-        <v>0</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="22">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1021">
       <c r="A6" s="21">
         <v>2</v>
       </c>
       <c r="B6" s="21">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6">
         <v>35</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6">
         <v>37</v>
       </c>
       <c r="F6">
         <v>319770</v>
       </c>
-      <c r="G6" s="22">
-        <f>ROUND(F6/89,0)</f>
+      <c r="G6">
         <v>3593</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6">
         <v>46.298000000000002</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6">
         <v>50</v>
       </c>
       <c r="J6">
         <v>28.05</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
         <v>28.05</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1024">
+    <row r="7" spans="1:1021">
       <c r="A7" s="21">
         <v>2</v>
       </c>
       <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7">
         <v>43.073745000000002</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7">
         <v>57</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7">
         <v>46</v>
       </c>
       <c r="F7">
         <v>154660</v>
       </c>
-      <c r="G7" s="22">
-        <f>ROUND(F7/65,0)</f>
+      <c r="G7">
         <v>2379</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7">
         <v>68.010379189490607</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7">
         <v>52.302526499999999</v>
       </c>
       <c r="J7">
         <v>26.4</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1024">
+    <row r="8" spans="1:1021">
       <c r="A8" s="21">
         <v>2</v>
       </c>
       <c r="B8" s="21">
         <v>3</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8">
         <v>33</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8">
         <v>49</v>
       </c>
       <c r="F8">
         <v>51414</v>
       </c>
-      <c r="G8" s="22">
-        <f>ROUND(F8/95,0)</f>
+      <c r="G8">
         <v>541</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8">
         <v>42.953084354922403</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8">
         <v>33</v>
       </c>
       <c r="J8">
         <v>29.7</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
         <v>29.7</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1024">
+    <row r="9" spans="1:1021">
       <c r="A9" s="21">
         <v>2</v>
       </c>
       <c r="B9" s="21">
         <v>4</v>
       </c>
-      <c r="C9" s="22">
-        <v>0</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="22">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1024">
+    <row r="10" spans="1:1021">
       <c r="A10" s="21">
         <v>3</v>
       </c>
       <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10">
         <v>53</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10">
         <v>51</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10">
         <v>38</v>
       </c>
       <c r="F10">
         <v>714780</v>
       </c>
-      <c r="G10" s="22">
-        <f>ROUND(F10/89,0)</f>
+      <c r="G10">
         <v>8031</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10">
         <v>37</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10">
         <v>56.031686100000002</v>
       </c>
       <c r="J10">
         <v>31.35</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
         <v>31.35</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1024">
+    <row r="11" spans="1:1021">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="21">
         <v>2</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11">
         <v>56.033810437500001</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11">
         <v>29</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11">
         <v>30</v>
       </c>
       <c r="F11">
         <v>100320</v>
       </c>
-      <c r="G11" s="22">
-        <f>ROUND(F11/65,0)</f>
+      <c r="G11">
         <v>1543</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11">
         <v>33</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11">
         <v>34</v>
       </c>
       <c r="J11">
         <v>13.2</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1024">
+    <row r="12" spans="1:1021">
       <c r="A12" s="21">
         <v>3</v>
       </c>
       <c r="B12" s="21">
         <v>3</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12">
         <v>33.75</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12">
         <v>42</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12">
         <v>35</v>
       </c>
       <c r="F12">
         <v>25080</v>
       </c>
-      <c r="G12" s="22">
-        <f>ROUND(F12/95,0)</f>
+      <c r="G12">
         <v>264</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12">
         <v>26</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12">
         <v>27</v>
       </c>
       <c r="J12">
         <v>13.2</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
         <v>13.2</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1024">
+    <row r="13" spans="1:1021">
       <c r="A13" s="21">
         <v>3</v>
       </c>
       <c r="B13" s="21">
         <v>4</v>
       </c>
-      <c r="C13" s="22">
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="22">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1024">
+    <row r="14" spans="1:1021">
       <c r="A14" s="21">
         <v>4</v>
       </c>
       <c r="B14" s="21">
         <v>1</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14">
         <v>51.015689999999999</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14">
         <v>27</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14">
         <v>36</v>
       </c>
       <c r="F14">
         <v>679250</v>
       </c>
-      <c r="G14" s="22">
-        <f>ROUND(F14/89,0)</f>
+      <c r="G14">
         <v>7632</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14">
         <v>51.736963932253602</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14">
         <v>46.570642499999998</v>
       </c>
       <c r="J14">
         <v>36.299999999999997</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
         <v>36.299999999999997</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1024">
+    <row r="15" spans="1:1021">
       <c r="A15" s="21">
         <v>4</v>
       </c>
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15">
         <v>43.526484843749998</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15">
         <v>63</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15">
         <v>45</v>
       </c>
       <c r="F15">
         <v>135432</v>
       </c>
-      <c r="G15" s="22">
-        <f>ROUND(F15/65,0)</f>
+      <c r="G15">
         <v>2084</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15">
         <v>34.079688255239603</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15">
         <v>32.004817125000002</v>
       </c>
       <c r="J15">
         <v>18.149999999999999</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1021">
       <c r="A16" s="21">
         <v>4</v>
       </c>
       <c r="B16" s="21">
         <v>3</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16">
         <v>33</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16">
         <v>48</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16">
         <v>43</v>
       </c>
       <c r="F16">
         <v>56430</v>
       </c>
-      <c r="G16" s="22">
-        <f>ROUND(F16/95,0)</f>
+      <c r="G16">
         <v>594</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16">
         <v>27</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16">
         <v>28</v>
       </c>
       <c r="J16">
         <v>14.85</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
         <v>14.85</v>
       </c>
       <c r="L16">
@@ -3687,32 +6958,31 @@
       <c r="B17" s="21">
         <v>4</v>
       </c>
-      <c r="C17" s="22">
-        <v>0</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
@@ -3726,33 +6996,31 @@
       <c r="B18" s="21">
         <v>1</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18">
         <v>58.207680843749998</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18">
         <v>39</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18">
         <v>35</v>
       </c>
       <c r="F18">
         <v>180576</v>
       </c>
-      <c r="G18" s="22">
-        <f>ROUND(F18/89,0)</f>
+      <c r="G18">
         <v>2029</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18">
         <v>31.951753453723299</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18">
         <v>34</v>
       </c>
       <c r="J18">
         <v>26.4</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
       <c r="L18">
@@ -3766,33 +7034,31 @@
       <c r="B19" s="21">
         <v>2</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19">
         <v>50.242815</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19">
         <v>51</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19">
         <v>39</v>
       </c>
       <c r="F19">
         <v>77748</v>
       </c>
-      <c r="G19" s="22">
-        <f>ROUND(F19/65,0)</f>
+      <c r="G19">
         <v>1196</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19">
         <v>36.030627959197403</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19">
         <v>39.799266000000003</v>
       </c>
       <c r="J19">
         <v>21.45</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
         <v>21.45</v>
       </c>
       <c r="L19">
@@ -3806,33 +7072,31 @@
       <c r="B20" s="21">
         <v>3</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20">
         <v>31</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20">
         <v>33</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20">
         <v>40</v>
       </c>
       <c r="F20">
         <v>22572</v>
       </c>
-      <c r="G20" s="22">
-        <f>ROUND(F20/95,0)</f>
+      <c r="G20">
         <v>238</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20">
         <v>49.462887821740402</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20">
         <v>36</v>
       </c>
       <c r="J20">
         <v>18.149999999999999</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
         <v>18.149999999999999</v>
       </c>
       <c r="L20">
@@ -3846,32 +7110,31 @@
       <c r="B21" s="21">
         <v>4</v>
       </c>
-      <c r="C21" s="22">
-        <v>0</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22">
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
@@ -3885,33 +7148,31 @@
       <c r="B22" s="21">
         <v>1</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22">
         <v>47.389818937500003</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22">
         <v>59</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22">
         <v>37</v>
       </c>
       <c r="F22">
         <v>470250</v>
       </c>
-      <c r="G22" s="22">
-        <f>ROUND(F22/89,0)</f>
+      <c r="G22">
         <v>5284</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22">
         <v>74.135409794294503</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22">
         <v>36.470678325000002</v>
       </c>
       <c r="J22">
         <v>34.65</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
         <v>34.65</v>
       </c>
       <c r="L22">
@@ -3925,33 +7186,31 @@
       <c r="B23" s="21">
         <v>2</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23">
         <v>42.170185687500002</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23">
         <v>72</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23">
         <v>42</v>
       </c>
       <c r="F23">
         <v>123393.60000000001</v>
       </c>
-      <c r="G23" s="22">
-        <f>ROUND(F23/65,0)</f>
+      <c r="G23">
         <v>1898</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23">
         <v>63.914681686086901</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23">
         <v>44.348284274999997</v>
       </c>
       <c r="J23">
         <v>29.7</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
         <v>29.7</v>
       </c>
       <c r="L23">
@@ -3965,33 +7224,31 @@
       <c r="B24" s="21">
         <v>3</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24">
         <v>35</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24">
         <v>33</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24">
         <v>42</v>
       </c>
       <c r="F24">
         <v>30305</v>
       </c>
-      <c r="G24" s="22">
-        <f>ROUND(F24/95,0)</f>
+      <c r="G24">
         <v>319</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24">
         <v>48.8985466891939</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24">
         <v>33</v>
       </c>
       <c r="J24">
         <v>19.8</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
       <c r="L24">
@@ -4005,32 +7262,31 @@
       <c r="B25" s="21">
         <v>4</v>
       </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
-        <v>0</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
@@ -4044,33 +7300,31 @@
       <c r="B26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26">
         <v>52.522647749999997</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26">
         <v>38</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26">
         <v>42</v>
       </c>
       <c r="F26">
         <v>391875</v>
       </c>
-      <c r="G26" s="22">
-        <f>ROUND(F26/89,0)</f>
+      <c r="G26">
         <v>4403</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26">
         <v>35.827110643611697</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26">
         <v>53.063854650000003</v>
       </c>
       <c r="J26">
         <v>34.65</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
         <v>34.65</v>
       </c>
       <c r="L26">
@@ -4084,33 +7338,31 @@
       <c r="B27" s="21">
         <v>2</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27">
         <v>52.715356874999998</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27">
         <v>35</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27">
         <v>40</v>
       </c>
       <c r="F27">
         <v>94050</v>
       </c>
-      <c r="G27" s="22">
-        <f>ROUND(F27/65,0)</f>
+      <c r="G27">
         <v>1447</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27">
         <v>30.198295180119</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27">
         <v>22.519712250000001</v>
       </c>
       <c r="J27">
         <v>14.85</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
         <v>14.85</v>
       </c>
       <c r="L27">
@@ -4124,33 +7376,31 @@
       <c r="B28" s="21">
         <v>3</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28">
         <v>31</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28">
         <v>48</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28">
         <v>36</v>
       </c>
       <c r="F28">
         <v>16929</v>
       </c>
-      <c r="G28" s="22">
-        <f>ROUND(F28/95,0)</f>
+      <c r="G28">
         <v>178</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28">
         <v>41.265919611481998</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28">
         <v>39</v>
       </c>
       <c r="J28">
         <v>14.85</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
         <v>14.85</v>
       </c>
       <c r="L28">
@@ -4164,32 +7414,31 @@
       <c r="B29" s="21">
         <v>4</v>
       </c>
-      <c r="C29" s="22">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22">
-        <v>0</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29">
@@ -4203,33 +7452,31 @@
       <c r="B30" s="21">
         <v>1</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30">
         <v>45</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30">
         <v>66</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30">
         <v>37</v>
       </c>
       <c r="F30">
         <v>141075</v>
       </c>
-      <c r="G30" s="22">
-        <f>ROUND(F30/89,0)</f>
+      <c r="G30">
         <v>1585</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30">
         <v>41</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30">
         <v>47</v>
       </c>
       <c r="J30">
         <v>34.65</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
         <v>34.65</v>
       </c>
       <c r="L30">
@@ -4243,33 +7490,31 @@
       <c r="B31" s="21">
         <v>2</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31">
         <v>58.827489046875002</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31">
         <v>45</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31">
         <v>47</v>
       </c>
       <c r="F31">
         <v>49658.400000000001</v>
       </c>
-      <c r="G31" s="22">
-        <f>ROUND(F31/65,0)</f>
+      <c r="G31">
         <v>764</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31">
         <v>44.605861068498697</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31">
         <v>36</v>
       </c>
       <c r="J31">
         <v>23.1</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
         <v>23.1</v>
       </c>
       <c r="L31">
@@ -4283,33 +7528,31 @@
       <c r="B32" s="21">
         <v>3</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32">
         <v>35</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32">
         <v>56</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32">
         <v>41</v>
       </c>
       <c r="F32">
         <v>6186.4</v>
       </c>
-      <c r="G32" s="22">
-        <f>ROUND(F32/95,0)</f>
+      <c r="G32">
         <v>65</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32">
         <v>48.693079203459803</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32">
         <v>35</v>
       </c>
       <c r="J32">
         <v>26.4</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
       <c r="L32">
@@ -4323,32 +7566,31 @@
       <c r="B33" s="21">
         <v>4</v>
       </c>
-      <c r="C33" s="22">
-        <v>0</v>
-      </c>
-      <c r="D33" s="22">
-        <v>0</v>
-      </c>
-      <c r="E33" s="22">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33">
@@ -4362,33 +7604,31 @@
       <c r="B34" s="21">
         <v>1</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34">
         <v>41.1884595</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34">
         <v>60</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34">
         <v>45</v>
       </c>
       <c r="F34">
         <v>116622</v>
       </c>
-      <c r="G34" s="22">
-        <f>ROUND(F34/89,0)</f>
+      <c r="G34">
         <v>1310</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34">
         <v>34.649047404029801</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34">
         <v>41.419339200000003</v>
       </c>
       <c r="J34">
         <v>44.55</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
         <v>44.55</v>
       </c>
       <c r="L34">
@@ -4402,33 +7642,31 @@
       <c r="B35" s="21">
         <v>2</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35">
         <v>54.581176687499998</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35">
         <v>60</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35">
         <v>46</v>
       </c>
       <c r="F35">
         <v>52366.6</v>
       </c>
-      <c r="G35" s="22">
-        <f>ROUND(F35/65,0)</f>
+      <c r="G35">
         <v>806</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35">
         <v>45.026164711021899</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35">
         <v>41.601480449999997</v>
       </c>
       <c r="J35">
         <v>19.8</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
       <c r="L35">
@@ -4442,33 +7680,31 @@
       <c r="B36" s="21">
         <v>3</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36">
         <v>45</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36">
         <v>36</v>
       </c>
       <c r="F36">
         <v>15466</v>
       </c>
-      <c r="G36" s="22">
-        <f>ROUND(F36/95,0)</f>
+      <c r="G36">
         <v>163</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36">
         <v>53.039824126338097</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36">
         <v>35</v>
       </c>
       <c r="J36">
         <v>26.4</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
       <c r="L36">
@@ -4482,32 +7718,31 @@
       <c r="B37" s="21">
         <v>4</v>
       </c>
-      <c r="C37" s="22">
-        <v>0</v>
-      </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
-        <v>0</v>
-      </c>
-      <c r="I37" s="22">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L37">
@@ -4521,33 +7756,31 @@
       <c r="B38" s="21">
         <v>1</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38">
         <v>47.851195500000003</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38">
         <v>40</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38">
         <v>33</v>
       </c>
       <c r="F38">
         <v>1429560</v>
       </c>
-      <c r="G38" s="22">
-        <f>ROUND(F38/89,0)</f>
+      <c r="G38">
         <v>16062</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38">
         <v>46.285965830817197</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38">
         <v>32.556673199999999</v>
       </c>
       <c r="J38">
         <v>31.35</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
         <v>31.35</v>
       </c>
       <c r="L38">
@@ -4561,33 +7794,31 @@
       <c r="B39" s="21">
         <v>2</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39">
         <v>40.703016374999997</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39">
         <v>43</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39">
         <v>40</v>
       </c>
       <c r="F39">
         <v>135850</v>
       </c>
-      <c r="G39" s="22">
-        <f>ROUND(F39/65,0)</f>
+      <c r="G39">
         <v>2090</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39">
         <v>31.4039024539948</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39">
         <v>29</v>
       </c>
       <c r="J39">
         <v>16.5</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="L39">
@@ -4601,33 +7832,31 @@
       <c r="B40" s="21">
         <v>3</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40">
         <v>29</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40">
         <v>44</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40">
         <v>45</v>
       </c>
       <c r="F40">
         <v>146300</v>
       </c>
-      <c r="G40" s="22">
-        <f>ROUND(F40/95,0)</f>
+      <c r="G40">
         <v>1540</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40">
         <v>50.8331028360967</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40">
         <v>30</v>
       </c>
       <c r="J40">
         <v>24.75</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
         <v>24.75</v>
       </c>
       <c r="L40">
@@ -4641,37 +7870,39 @@
       <c r="B41" s="21">
         <v>4</v>
       </c>
-      <c r="C41" s="22">
-        <v>0</v>
-      </c>
-      <c r="D41" s="22">
-        <v>0</v>
-      </c>
-      <c r="E41" s="22">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="22">
-        <v>0</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0</v>
-      </c>
-      <c r="I41" s="22">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="H44" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4684,8 +7915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4717,36 +7948,38 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54">
+    <row r="2" spans="1:6" ht="67.5">
       <c r="A2" s="28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="31">
-        <v>1584190</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="29"/>
+        <v>544229</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:6" ht="67.5">
+    <row r="3" spans="1:6" ht="54">
       <c r="A3" s="28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C3" s="31">
-        <v>544229</v>
+        <v>630562</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>92</v>
-      </c>
+      <c r="E3" s="27"/>
       <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="67.5">
@@ -4785,34 +8018,34 @@
     </row>
     <row r="6" spans="1:6" ht="54">
       <c r="A6" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C6" s="31">
-        <v>280972</v>
+        <v>190637</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="54">
       <c r="A7" s="28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="31">
-        <v>630562</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="27"/>
+        <v>280972</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
+        <v>98</v>
+      </c>
       <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="54">
@@ -4831,48 +8064,46 @@
     </row>
     <row r="9" spans="1:6" ht="54">
       <c r="A9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>101</v>
+        <v>77</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="C9" s="31">
-        <v>190637</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
+        <v>182941</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>91</v>
       </c>
+      <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="1:6" ht="54">
+    <row r="10" spans="1:6" ht="27">
       <c r="A10" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="31">
-        <v>182941</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>1860563</v>
+      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="1:6" ht="27">
+    <row r="11" spans="1:6" ht="54">
       <c r="A11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>103</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="31">
-        <v>1860563</v>
+        <v>1584190</v>
       </c>
       <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="27"/>
     </row>
   </sheetData>
@@ -6877,7 +10108,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
